--- a/Finflux Automation Excels/Client/3039-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/3039-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -202,8 +207,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,11 +317,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -329,6 +347,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,6 +375,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -386,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,9 +459,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,6 +511,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,18 +714,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>42036</v>
       </c>
     </row>
@@ -670,13 +744,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,80 +774,80 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>785.8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>9214.2000000000007</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>802.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>668.41</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>101.92</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>566.49</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>84.82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>100</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>100</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -786,673 +860,674 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="13.85546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18">
         <v>42005</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="19">
         <v>10000</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="17">
         <v>31</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="18">
         <v>42036</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="18">
         <v>42036</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="6">
+      <c r="E3" s="20"/>
+      <c r="F3" s="17">
         <v>785.8</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="21">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="17">
         <v>101.92</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="17">
         <v>100</v>
       </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
         <v>987.72</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="17">
         <v>987.72</v>
       </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
+      <c r="M3" s="17">
+        <v>0</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="17">
         <v>28</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="18">
         <v>42064</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17">
         <v>802.9</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="21">
         <v>8411.2999999999993</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="17">
         <v>84.82</v>
       </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
         <v>887.72</v>
       </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17">
         <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="17">
         <v>31</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="18">
         <v>42095</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17">
         <v>793.81</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="21">
         <v>7617.49</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="17">
         <v>93.91</v>
       </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
         <v>887.72</v>
       </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
         <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="17">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="18">
         <v>42125</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
         <v>812.59</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="21">
         <v>6804.9</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="17">
         <v>75.13</v>
       </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
         <v>887.72</v>
       </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
         <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="17">
         <v>31</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="18">
         <v>42156</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
         <v>818.37</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="21">
         <v>5986.53</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="17">
         <v>69.349999999999994</v>
       </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
         <v>887.72</v>
       </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
         <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="17">
         <v>30</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="18">
         <v>42186</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
         <v>828.67</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="21">
         <v>5157.8599999999997</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="17">
         <v>59.05</v>
       </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
         <v>887.72</v>
       </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
         <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="17">
         <v>31</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="18">
         <v>42217</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
         <v>835.15</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="21">
         <v>4322.71</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="17">
         <v>52.57</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
         <v>887.72</v>
       </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17">
         <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="17">
         <v>31</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="18">
         <v>42248</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17">
         <v>843.66</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="21">
         <v>3479.05</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="17">
         <v>44.06</v>
       </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
         <v>887.72</v>
       </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17">
         <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="17">
         <v>30</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="18">
         <v>42278</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17">
         <v>853.41</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="21">
         <v>2625.64</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="17">
         <v>34.31</v>
       </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
         <v>887.72</v>
       </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
         <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="17">
         <v>31</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="18">
         <v>42309</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
         <v>860.96</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="21">
         <v>1764.68</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="17">
         <v>26.76</v>
       </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
         <v>887.72</v>
       </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17">
         <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="17">
         <v>30</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="18">
         <v>42339</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17">
         <v>870.31</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="17">
         <v>894.37</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="17">
         <v>17.41</v>
       </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
         <v>887.72</v>
       </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17">
         <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="17">
         <v>31</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="18">
         <v>42370</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17">
         <v>894.37</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
         <v>9.1199999999999992</v>
       </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
         <v>903.49</v>
       </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="17">
         <v>903.49</v>
       </c>
     </row>
@@ -1472,17 +1547,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1518,170 +1593,170 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>123</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>42095</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>93.91</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>93.91</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>122</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>42064</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>84.82</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>84.82</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>121</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>42036</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>987.72</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>785.8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>101.92</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>100</v>
       </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>9214.2000000000007</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>118</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>42036</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>201.92</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>101.92</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>100</v>
       </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>117</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>42005</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>10000</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>10000</v>
       </c>
       <c r="K6"/>
@@ -1735,55 +1810,55 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>13</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>42005</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>14</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>42005</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1836,25 +1911,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>70</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>42036</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I2" t="s">
@@ -1862,25 +1937,25 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>71</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>42036</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>42</v>
       </c>
       <c r="I3" t="s">
@@ -1888,25 +1963,25 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>72</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>42036</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I4" t="s">
@@ -1914,25 +1989,25 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>73</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>42036</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H5" t="s">
@@ -1948,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,218 +2069,240 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>42036</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>59</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>42036</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>60</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>42036</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>61</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>42036</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>74</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>42064</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>75</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>42064</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>76</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>42095</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>77</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>42095</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Finflux Automation Excels/Client/3039-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/3039-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -207,23 +202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,9 +297,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -347,25 +329,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,9 +338,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,26 +419,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,23 +454,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -714,18 +640,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>42036</v>
       </c>
     </row>
@@ -744,13 +670,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,80 +700,80 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>10000</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>785.8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>9214.2000000000007</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>802.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>668.41</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>101.92</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
         <v>566.49</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>84.82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>100</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>100</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -860,674 +786,673 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="16" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="13.85546875" style="16"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7">
         <v>42005</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="19">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8">
         <v>10000</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
-        <v>0</v>
-      </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="6">
         <v>31</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="7">
         <v>42036</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="17">
+      <c r="E3" s="10"/>
+      <c r="F3" s="6">
         <v>785.8</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="9">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="6">
         <v>101.92</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="6">
         <v>100</v>
       </c>
-      <c r="J3" s="17">
-        <v>0</v>
-      </c>
-      <c r="K3" s="17">
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
         <v>987.72</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="6">
         <v>987.72</v>
       </c>
-      <c r="M3" s="17">
-        <v>0</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17">
-        <v>0</v>
-      </c>
-      <c r="P3" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="17">
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="6">
         <v>28</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="7">
         <v>42064</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>802.9</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="9">
         <v>8411.2999999999993</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="6">
         <v>84.82</v>
       </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>887.72</v>
       </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="17">
-        <v>0</v>
-      </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="17">
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="6">
         <v>31</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="7">
         <v>42095</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>793.81</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="9">
         <v>7617.49</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="6">
         <v>93.91</v>
       </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>887.72</v>
       </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
-      <c r="M5" s="17">
-        <v>0</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="17">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="6">
         <v>30</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="7">
         <v>42125</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>812.59</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="9">
         <v>6804.9</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="6">
         <v>75.13</v>
       </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
         <v>887.72</v>
       </c>
-      <c r="L6" s="17">
-        <v>0</v>
-      </c>
-      <c r="M6" s="17">
-        <v>0</v>
-      </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="17">
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="6">
         <v>31</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="7">
         <v>42156</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>818.37</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="9">
         <v>5986.53</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="6">
         <v>69.349999999999994</v>
       </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0</v>
-      </c>
-      <c r="K7" s="17">
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>887.72</v>
       </c>
-      <c r="L7" s="17">
-        <v>0</v>
-      </c>
-      <c r="M7" s="17">
-        <v>0</v>
-      </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="17">
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="6">
         <v>30</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="7">
         <v>42186</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>828.67</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="9">
         <v>5157.8599999999997</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="6">
         <v>59.05</v>
       </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>887.72</v>
       </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17">
-        <v>0</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="17">
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="6">
         <v>31</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="7">
         <v>42217</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>835.15</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="9">
         <v>4322.71</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="6">
         <v>52.57</v>
       </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17">
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>887.72</v>
       </c>
-      <c r="L9" s="17">
-        <v>0</v>
-      </c>
-      <c r="M9" s="17">
-        <v>0</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="17">
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="6">
         <v>31</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="7">
         <v>42248</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>843.66</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="9">
         <v>3479.05</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="6">
         <v>44.06</v>
       </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0</v>
-      </c>
-      <c r="K10" s="17">
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
         <v>887.72</v>
       </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="17">
-        <v>0</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
-        <v>0</v>
-      </c>
-      <c r="P10" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="17">
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="6">
         <v>30</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="7">
         <v>42278</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>853.41</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="9">
         <v>2625.64</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="6">
         <v>34.31</v>
       </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
         <v>887.72</v>
       </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="17">
-        <v>0</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="17">
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="6">
         <v>31</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="7">
         <v>42309</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
         <v>860.96</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="9">
         <v>1764.68</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="6">
         <v>26.76</v>
       </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>887.72</v>
       </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>0</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
-        <v>0</v>
-      </c>
-      <c r="P12" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="17">
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="6">
         <v>30</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="7">
         <v>42339</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>870.31</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="6">
         <v>894.37</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="6">
         <v>17.41</v>
       </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0</v>
-      </c>
-      <c r="K13" s="17">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
         <v>887.72</v>
       </c>
-      <c r="L13" s="17">
-        <v>0</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17">
-        <v>0</v>
-      </c>
-      <c r="P13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="17">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="6">
         <v>31</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="7">
         <v>42370</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>894.37</v>
       </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>9.1199999999999992</v>
       </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
         <v>903.49</v>
       </c>
-      <c r="L14" s="17">
-        <v>0</v>
-      </c>
-      <c r="M14" s="17">
-        <v>0</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
-        <v>0</v>
-      </c>
-      <c r="P14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="17">
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>903.49</v>
       </c>
     </row>
@@ -1547,17 +1472,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1593,170 +1518,170 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>123</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>42095</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>93.91</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
         <v>93.91</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>122</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>42064</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>84.82</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
         <v>84.82</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>121</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>42036</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>987.72</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>785.8</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>101.92</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>100</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
         <v>9214.2000000000007</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>118</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>42036</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>201.92</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>101.92</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <v>100</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>117</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>42005</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>10000</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <v>10000</v>
       </c>
       <c r="K6"/>
@@ -1810,55 +1735,55 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1911,25 +1836,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="11">
         <v>70</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="11">
         <v>42036</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I2" t="s">
@@ -1937,25 +1862,25 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>71</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="11">
         <v>42036</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I3" t="s">
@@ -1963,25 +1888,25 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>72</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>42036</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>50</v>
       </c>
       <c r="I4" t="s">
@@ -1989,25 +1914,25 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>73</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>42036</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H5" t="s">
@@ -2023,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,240 +1994,218 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>42036</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>59</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>60</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>42036</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>61</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>42036</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>74</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>42064</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>75</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>42064</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>76</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>42095</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>77</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>42095</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
